--- a/Agustus/Data Vaksinasi Berbasis Kelurahan (01 Agustus 2021).xlsx
+++ b/Agustus/Data Vaksinasi Berbasis Kelurahan (01 Agustus 2021).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\Semester7\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\Semester7\Internship1\Agustus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D69DB5F-3563-4579-92E5-723D2950C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109AFE22-1BC2-4124-AB14-2199F807814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Kelurahan" sheetId="1" r:id="rId1"/>
@@ -2508,11 +2508,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA269"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24891,9 +24891,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V9" sqref="V9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
